--- a/zh-cn/表格/xg-输入校对表.xlsx
+++ b/zh-cn/表格/xg-输入校对表.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="输入校对表" sheetId="1" r:id="Rbfcde794d27e4369"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="输入校对表" sheetId="1" r:id="R4822f370468a4221"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -3790,76 +3790,6 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="109">
-      <x:c t="n">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>s-802锦绣纹</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>10*3600</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>墙</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>南东卧室</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="110">
-      <x:c t="n">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>s-604同步金橡</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>x</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>11*150</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>墙</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>南东卧室</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v/>
-      </x:c>
-      <x:c t="str">
-        <x:v/>
-      </x:c>
-      <x:c t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c t="n">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>